--- a/municipal/სასტუმროები/სტუმრები/გურია/ლანჩხუთი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/გურია/ლანჩხუთი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\გურია\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ლანჩხუთის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ლანჩხუთის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,13 +295,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -347,14 +415,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,17 +439,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -675,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -750,66 +821,66 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
@@ -903,14 +974,14 @@
       <c r="BQ3" s="15"/>
     </row>
     <row r="4" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="58">
         <v>2010</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -979,19 +1050,19 @@
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <v>1405</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="50">
         <v>455</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="50">
         <v>946</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="50">
         <v>2</v>
       </c>
       <c r="G5" s="23"/>
@@ -1062,19 +1133,19 @@
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="51">
         <v>1168</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="51">
         <v>389</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="51">
         <v>777</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="28"/>
@@ -1145,19 +1216,19 @@
       <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="51">
         <v>237</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="51">
         <v>66</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="51">
         <v>169</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="56">
+      <c r="E7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="51">
         <v>2</v>
       </c>
       <c r="G7" s="28"/>
@@ -1228,19 +1299,19 @@
       <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="51">
         <v>58</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="C8" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="51">
         <v>58</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="28"/>
@@ -1311,19 +1382,19 @@
       <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="51">
         <v>116</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="51">
         <v>40</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="51">
         <v>76</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="28"/>
@@ -1394,19 +1465,19 @@
       <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="52">
         <v>63</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="52">
         <v>26</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="52">
         <v>35</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="57">
+      <c r="E10" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="52">
         <v>2</v>
       </c>
       <c r="G10" s="28"/>
@@ -1474,14 +1545,14 @@
       <c r="BQ10" s="5"/>
     </row>
     <row r="11" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="54">
         <v>2011</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -1550,19 +1621,19 @@
       <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <v>2336</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="50">
         <v>1356</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="50">
         <v>980</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="55" t="s">
+      <c r="E12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="32"/>
@@ -1585,19 +1656,19 @@
       <c r="A13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="51">
         <v>1709</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="51">
         <v>981</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="51">
         <v>728</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="55" t="s">
+      <c r="E13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="32"/>
@@ -1620,19 +1691,19 @@
       <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="51">
         <v>627</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="51">
         <v>375</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="51">
         <v>252</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="32"/>
@@ -1655,19 +1726,19 @@
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="51">
         <v>171</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="51">
         <v>56</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="51">
         <v>115</v>
       </c>
-      <c r="E15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="E15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="32"/>
@@ -1690,19 +1761,19 @@
       <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="51">
         <v>304</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="51">
         <v>286</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="51">
         <v>18</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="32"/>
@@ -1725,19 +1796,19 @@
       <c r="A17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <v>152</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="52">
         <v>33</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="52">
         <v>119</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="32"/>
@@ -1757,14 +1828,14 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
+      <c r="A18" s="54">
         <v>2012</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
@@ -1833,19 +1904,19 @@
       <c r="A19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="50">
         <v>2546</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="50">
         <v>2293</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="50">
         <v>253</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="32"/>
@@ -1868,19 +1939,19 @@
       <c r="A20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="51">
         <v>1860</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="51">
         <v>1836</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="51">
         <v>24</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="32"/>
@@ -1903,19 +1974,19 @@
       <c r="A21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="51">
         <v>686</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="51">
         <v>457</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="51">
         <v>229</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="E21" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="32"/>
@@ -1938,19 +2009,19 @@
       <c r="A22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="51">
         <v>58</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="51">
         <v>16</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="51">
         <v>42</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="55" t="s">
+      <c r="E22" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="32"/>
@@ -1973,19 +2044,19 @@
       <c r="A23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="51">
         <v>508</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="51">
         <v>441</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="51">
         <v>67</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="55" t="s">
+      <c r="E23" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="32"/>
@@ -2008,19 +2079,19 @@
       <c r="A24" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="52">
         <v>120</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="57">
+      <c r="C24" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="52">
         <v>120</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="32"/>
@@ -2040,14 +2111,14 @@
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="54">
         <v>2013</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -2116,19 +2187,19 @@
       <c r="A26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="50">
         <v>2615</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="50">
         <v>2003</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="50">
         <v>612</v>
       </c>
-      <c r="E26" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="55" t="s">
+      <c r="E26" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="32"/>
@@ -2151,19 +2222,19 @@
       <c r="A27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="51">
         <v>2170</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="51">
         <v>1771</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="51">
         <v>399</v>
       </c>
-      <c r="E27" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="55" t="s">
+      <c r="E27" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="32"/>
@@ -2186,19 +2257,19 @@
       <c r="A28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="51">
         <v>445</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="51">
         <v>232</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="51">
         <v>213</v>
       </c>
-      <c r="E28" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="56" t="s">
+      <c r="E28" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="32"/>
@@ -2221,19 +2292,19 @@
       <c r="A29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="51">
         <v>82</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="51">
         <v>5</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="51">
         <v>77</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="55" t="s">
+      <c r="E29" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="32"/>
@@ -2256,19 +2327,19 @@
       <c r="A30" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="51">
         <v>242</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="51">
         <v>220</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="51">
         <v>22</v>
       </c>
-      <c r="E30" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="55" t="s">
+      <c r="E30" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="32"/>
@@ -2291,19 +2362,19 @@
       <c r="A31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="52">
         <v>121</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="52">
         <v>7</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="52">
         <v>114</v>
       </c>
-      <c r="E31" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="57" t="s">
+      <c r="E31" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="32"/>
@@ -2323,14 +2394,14 @@
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
+      <c r="A32" s="54">
         <v>2014</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
@@ -2399,19 +2470,19 @@
       <c r="A33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="50">
         <v>3845</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="50">
         <v>3259</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="50">
         <v>586</v>
       </c>
-      <c r="E33" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="55" t="s">
+      <c r="E33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="32"/>
@@ -2434,19 +2505,19 @@
       <c r="A34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="51">
         <v>3214</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="51">
         <v>2833</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="51">
         <v>381</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="55" t="s">
+      <c r="E34" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="32"/>
@@ -2469,19 +2540,19 @@
       <c r="A35" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="51">
         <v>631</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="51">
         <v>426</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="51">
         <v>205</v>
       </c>
-      <c r="E35" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="56" t="s">
+      <c r="E35" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="32"/>
@@ -2504,19 +2575,19 @@
       <c r="A36" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="51">
         <v>81</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="51">
         <v>13</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="51">
         <v>68</v>
       </c>
-      <c r="E36" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="55" t="s">
+      <c r="E36" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="32"/>
@@ -2539,19 +2610,19 @@
       <c r="A37" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="51">
         <v>442</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="51">
         <v>374</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="51">
         <v>68</v>
       </c>
-      <c r="E37" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="55" t="s">
+      <c r="E37" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="32"/>
@@ -2574,19 +2645,19 @@
       <c r="A38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="52">
         <v>108</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="52">
         <v>39</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="52">
         <v>69</v>
       </c>
-      <c r="E38" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="57" t="s">
+      <c r="E38" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="32"/>
@@ -2606,14 +2677,14 @@
       <c r="U38" s="32"/>
     </row>
     <row r="39" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
+      <c r="A39" s="54">
         <v>2015</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -2682,19 +2753,19 @@
       <c r="A40" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B40" s="50">
         <v>2064</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="50">
         <v>1234</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="50">
         <v>830</v>
       </c>
-      <c r="E40" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="55" t="s">
+      <c r="E40" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="44"/>
@@ -2765,19 +2836,19 @@
       <c r="A41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="51">
         <v>638</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="51">
         <v>277</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="51">
         <v>361</v>
       </c>
-      <c r="E41" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="55" t="s">
+      <c r="E41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="32"/>
@@ -2800,19 +2871,19 @@
       <c r="A42" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="51">
         <v>74</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="51">
         <v>21</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="51">
         <v>53</v>
       </c>
-      <c r="E42" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="32"/>
@@ -2835,19 +2906,19 @@
       <c r="A43" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="51">
         <v>394</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="51">
         <v>256</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="51">
         <v>138</v>
       </c>
-      <c r="E43" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="55" t="s">
+      <c r="E43" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="32"/>
@@ -2870,19 +2941,19 @@
       <c r="A44" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="51">
         <v>170</v>
       </c>
-      <c r="C44" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="56">
+      <c r="C44" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="51">
         <v>170</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="55" t="s">
+      <c r="E44" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="32"/>
@@ -2905,19 +2976,19 @@
       <c r="A45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="57" t="s">
+      <c r="B45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="32"/>
@@ -2937,14 +3008,14 @@
       <c r="U45" s="32"/>
     </row>
     <row r="46" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
+      <c r="A46" s="54">
         <v>2016</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3013,19 +3084,19 @@
       <c r="A47" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="50">
         <v>2698</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="50">
         <v>1618</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="50">
         <v>1080</v>
       </c>
-      <c r="E47" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="55" t="s">
+      <c r="E47" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="32"/>
@@ -3048,19 +3119,19 @@
       <c r="A48" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="51">
         <v>2009</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="51">
         <v>1280</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="51">
         <v>729</v>
       </c>
-      <c r="E48" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="55" t="s">
+      <c r="E48" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="32"/>
@@ -3083,19 +3154,19 @@
       <c r="A49" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="51">
         <v>689</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="51">
         <v>338</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="51">
         <v>351</v>
       </c>
-      <c r="E49" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="56" t="s">
+      <c r="E49" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="32"/>
@@ -3118,19 +3189,19 @@
       <c r="A50" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="51">
         <v>93</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="51">
         <v>19</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="51">
         <v>74</v>
       </c>
-      <c r="E50" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="55" t="s">
+      <c r="E50" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="32"/>
@@ -3153,19 +3224,19 @@
       <c r="A51" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="51">
         <v>415</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="51">
         <v>296</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="51">
         <v>119</v>
       </c>
-      <c r="E51" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="55" t="s">
+      <c r="E51" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="32"/>
@@ -3188,19 +3259,19 @@
       <c r="A52" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="52">
         <v>181</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="52">
         <v>23</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="52">
         <v>158</v>
       </c>
-      <c r="E52" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="57" t="s">
+      <c r="E52" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="32"/>
@@ -3220,14 +3291,14 @@
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="50">
+      <c r="A53" s="54">
         <v>2017</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3296,19 +3367,19 @@
       <c r="A54" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="55">
+      <c r="B54" s="50">
         <v>3517</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="50">
         <v>2323</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D54" s="50">
         <v>1194</v>
       </c>
-      <c r="E54" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="55" t="s">
+      <c r="E54" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="32"/>
@@ -3331,19 +3402,19 @@
       <c r="A55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="51">
         <v>2466</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="51">
         <v>1592</v>
       </c>
-      <c r="D55" s="56">
+      <c r="D55" s="51">
         <v>874</v>
       </c>
-      <c r="E55" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="55" t="s">
+      <c r="E55" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="32"/>
@@ -3366,19 +3437,19 @@
       <c r="A56" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="51">
         <v>1051</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="51">
         <v>731</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="51">
         <v>320</v>
       </c>
-      <c r="E56" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="56" t="s">
+      <c r="E56" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="32"/>
@@ -3401,19 +3472,19 @@
       <c r="A57" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="51">
         <v>63</v>
       </c>
-      <c r="C57" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="56">
+      <c r="C57" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="51">
         <v>63</v>
       </c>
-      <c r="E57" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="55" t="s">
+      <c r="E57" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="32"/>
@@ -3436,19 +3507,19 @@
       <c r="A58" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="51">
         <v>786</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="51">
         <v>691</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="51">
         <v>95</v>
       </c>
-      <c r="E58" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="55" t="s">
+      <c r="E58" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="32"/>
@@ -3471,19 +3542,19 @@
       <c r="A59" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <v>202</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="52">
         <v>40</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="52">
         <v>162</v>
       </c>
-      <c r="E59" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="57" t="s">
+      <c r="E59" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="32"/>
@@ -3503,14 +3574,14 @@
       <c r="U59" s="32"/>
     </row>
     <row r="60" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
+      <c r="A60" s="54">
         <v>2018</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -3579,19 +3650,19 @@
       <c r="A61" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="55">
+      <c r="B61" s="50">
         <v>2360</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="50">
         <v>1634</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="50">
         <v>726</v>
       </c>
-      <c r="E61" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="55" t="s">
+      <c r="E61" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="32"/>
@@ -3614,19 +3685,19 @@
       <c r="A62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="51">
         <v>1778</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="51">
         <v>1245</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="51">
         <v>533</v>
       </c>
-      <c r="E62" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="55" t="s">
+      <c r="E62" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="32"/>
@@ -3649,19 +3720,19 @@
       <c r="A63" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="51">
         <v>582</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="51">
         <v>389</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="51">
         <v>193</v>
       </c>
-      <c r="E63" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="56" t="s">
+      <c r="E63" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="32"/>
@@ -3684,19 +3755,19 @@
       <c r="A64" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="51">
         <v>108</v>
       </c>
-      <c r="C64" s="56">
+      <c r="C64" s="51">
         <v>65</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="51">
         <v>43</v>
       </c>
-      <c r="E64" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="55" t="s">
+      <c r="E64" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="32"/>
@@ -3719,19 +3790,19 @@
       <c r="A65" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="51">
         <v>343</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="51">
         <v>309</v>
       </c>
-      <c r="D65" s="56">
+      <c r="D65" s="51">
         <v>34</v>
       </c>
-      <c r="E65" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="55" t="s">
+      <c r="E65" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="32"/>
@@ -3754,19 +3825,19 @@
       <c r="A66" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="57">
+      <c r="B66" s="52">
         <v>131</v>
       </c>
-      <c r="C66" s="57">
+      <c r="C66" s="52">
         <v>15</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="52">
         <v>116</v>
       </c>
-      <c r="E66" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="57" t="s">
+      <c r="E66" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="32"/>
@@ -3786,14 +3857,14 @@
       <c r="U66" s="32"/>
     </row>
     <row r="67" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="50">
+      <c r="A67" s="54">
         <v>2019</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
@@ -3862,19 +3933,19 @@
       <c r="A68" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="55">
+      <c r="B68" s="50">
         <v>2502</v>
       </c>
-      <c r="C68" s="55">
+      <c r="C68" s="50">
         <v>1903</v>
       </c>
-      <c r="D68" s="55">
+      <c r="D68" s="50">
         <v>599</v>
       </c>
-      <c r="E68" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="55" t="s">
+      <c r="E68" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="32"/>
@@ -3897,19 +3968,19 @@
       <c r="A69" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="51">
         <v>1975</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="51">
         <v>1495</v>
       </c>
-      <c r="D69" s="56">
+      <c r="D69" s="51">
         <v>480</v>
       </c>
-      <c r="E69" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="55" t="s">
+      <c r="E69" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="32"/>
@@ -3932,19 +4003,19 @@
       <c r="A70" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="51">
         <v>527</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="51">
         <v>408</v>
       </c>
-      <c r="D70" s="56">
+      <c r="D70" s="51">
         <v>119</v>
       </c>
-      <c r="E70" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="56" t="s">
+      <c r="E70" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="32"/>
@@ -3967,19 +4038,19 @@
       <c r="A71" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="51">
         <v>86</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="51">
         <v>45</v>
       </c>
-      <c r="D71" s="56">
+      <c r="D71" s="51">
         <v>41</v>
       </c>
-      <c r="E71" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="55" t="s">
+      <c r="E71" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G71" s="32"/>
@@ -4002,19 +4073,19 @@
       <c r="A72" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="51">
         <v>307</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="51">
         <v>307</v>
       </c>
-      <c r="D72" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="55" t="s">
+      <c r="D72" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="32"/>
@@ -4037,19 +4108,19 @@
       <c r="A73" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="57">
+      <c r="B73" s="52">
         <v>134</v>
       </c>
-      <c r="C73" s="57">
+      <c r="C73" s="52">
         <v>56</v>
       </c>
-      <c r="D73" s="57">
+      <c r="D73" s="52">
         <v>78</v>
       </c>
-      <c r="E73" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="57" t="s">
+      <c r="E73" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="32"/>
@@ -4069,14 +4140,14 @@
       <c r="U73" s="32"/>
     </row>
     <row r="74" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="50">
+      <c r="A74" s="54">
         <v>2020</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
@@ -4145,19 +4216,19 @@
       <c r="A75" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="55">
+      <c r="B75" s="50">
         <v>1284</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="50">
         <v>1042</v>
       </c>
-      <c r="D75" s="55">
+      <c r="D75" s="50">
         <v>242</v>
       </c>
-      <c r="E75" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="55" t="s">
+      <c r="E75" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="32"/>
@@ -4180,19 +4251,19 @@
       <c r="A76" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="51">
         <v>1226</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="51">
         <v>1042</v>
       </c>
-      <c r="D76" s="56">
+      <c r="D76" s="51">
         <v>184</v>
       </c>
-      <c r="E76" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="55" t="s">
+      <c r="E76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="32"/>
@@ -4215,19 +4286,19 @@
       <c r="A77" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="51">
         <v>58</v>
       </c>
-      <c r="C77" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="56">
+      <c r="C77" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="51">
         <v>58</v>
       </c>
-      <c r="E77" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="56" t="s">
+      <c r="E77" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="32"/>
@@ -4250,19 +4321,19 @@
       <c r="A78" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="56">
+      <c r="B78" s="51">
         <v>9</v>
       </c>
-      <c r="C78" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="56">
+      <c r="C78" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="51">
         <v>9</v>
       </c>
-      <c r="E78" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="55" t="s">
+      <c r="E78" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="32"/>
@@ -4285,19 +4356,19 @@
       <c r="A79" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="56">
+      <c r="B79" s="51">
         <v>24</v>
       </c>
-      <c r="C79" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="56">
+      <c r="C79" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="51">
         <v>24</v>
       </c>
-      <c r="E79" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="55" t="s">
+      <c r="E79" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="32"/>
@@ -4320,19 +4391,19 @@
       <c r="A80" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="52">
         <v>25</v>
       </c>
-      <c r="C80" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="57">
+      <c r="C80" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="52">
         <v>25</v>
       </c>
-      <c r="E80" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="57" t="s">
+      <c r="E80" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="32"/>
@@ -4352,14 +4423,14 @@
       <c r="U80" s="32"/>
     </row>
     <row r="81" spans="1:69" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="50">
+      <c r="A81" s="54">
         <v>2021</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
@@ -4428,19 +4499,19 @@
       <c r="A82" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="50">
         <v>1099</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="50">
         <v>961</v>
       </c>
-      <c r="D82" s="55">
+      <c r="D82" s="50">
         <v>138</v>
       </c>
-      <c r="E82" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="55" t="s">
+      <c r="E82" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="44"/>
@@ -4511,19 +4582,19 @@
       <c r="A83" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="51">
         <v>939</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C83" s="51">
         <v>927</v>
       </c>
-      <c r="D83" s="56">
+      <c r="D83" s="51">
         <v>12</v>
       </c>
-      <c r="E83" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="55" t="s">
+      <c r="E83" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="32"/>
@@ -4546,19 +4617,19 @@
       <c r="A84" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="51">
         <v>160</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C84" s="51">
         <v>34</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="51">
         <v>126</v>
       </c>
-      <c r="E84" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="56" t="s">
+      <c r="E84" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G84" s="32"/>
@@ -4581,19 +4652,19 @@
       <c r="A85" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="51">
         <v>35</v>
       </c>
-      <c r="C85" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="56">
+      <c r="C85" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="51">
         <v>35</v>
       </c>
-      <c r="E85" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="55" t="s">
+      <c r="E85" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="32"/>
@@ -4616,19 +4687,19 @@
       <c r="A86" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="51">
         <v>37</v>
       </c>
-      <c r="C86" s="56">
+      <c r="C86" s="51">
         <v>3</v>
       </c>
-      <c r="D86" s="56">
+      <c r="D86" s="51">
         <v>34</v>
       </c>
-      <c r="E86" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="55" t="s">
+      <c r="E86" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G86" s="32"/>
@@ -4651,19 +4722,19 @@
       <c r="A87" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="57">
+      <c r="B87" s="52">
         <v>88</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="52">
         <v>31</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="52">
         <v>57</v>
       </c>
-      <c r="E87" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="57" t="s">
+      <c r="E87" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="32"/>
@@ -4682,13 +4753,15 @@
       <c r="T87" s="32"/>
       <c r="U87" s="32"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
+    <row r="88" spans="1:69" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
       <c r="G88" s="32"/>
       <c r="H88" s="32"/>
       <c r="I88" s="32"/>
@@ -6523,7 +6596,23 @@
       <c r="U167" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -6533,21 +6622,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
